--- a/src/test/resources/testcases/TestCase.xlsx
+++ b/src/test/resources/testcases/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>TCID</t>
   </si>
@@ -88,6 +88,60 @@
   </si>
   <si>
     <t>selectPortfolio</t>
+  </si>
+  <si>
+    <t>addNewStock</t>
+  </si>
+  <si>
+    <t>findCurrentStockQuantity</t>
+  </si>
+  <si>
+    <t>stockname</t>
+  </si>
+  <si>
+    <t>quantityBeforeModification</t>
+  </si>
+  <si>
+    <t>add_stock_id</t>
+  </si>
+  <si>
+    <t>stock_name_css</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>clickEnterButton</t>
+  </si>
+  <si>
+    <t>stockpurchase_id</t>
+  </si>
+  <si>
+    <t>selectDateFromCalendar</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>stockQty_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>stockprice_id</t>
+  </si>
+  <si>
+    <t>addStockbtn_id</t>
+  </si>
+  <si>
+    <t>verifyStockPresent</t>
   </si>
 </sst>
 </file>
@@ -111,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +193,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,13 +236,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B18:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,7 +553,7 @@
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -721,6 +790,192 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
